--- a/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - IC Petrol - Large.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - IC Petrol - Large.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\IC POS 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\POS 2020 тех файлы\IC POS 2020 MAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D575F51-4109-4DCE-8D75-01B011059AD3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9008D4D-5E3D-4905-8366-897B526D229D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,8 +17,8 @@
     <sheet name="Petrol" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Petrol!$A$1:$AO$86</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Petrol!$A$1:$AO$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Petrol!$A$1:$AP$86</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Petrol!$A$1:$AP$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="346">
   <si>
     <t>Sorting</t>
   </si>
@@ -987,12 +987,6 @@
   </si>
   <si>
     <t>ХО: Максимум 26 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>Brand: Coca-Cola, Coca-Cola Zero, BonAqua</t>
-  </si>
-  <si>
-    <t>Coca-Cola, Coca-Cola Zero, BonAqua</t>
   </si>
   <si>
     <t>Cash Zone; SS_Cash Zone - Petrol</t>
@@ -1133,6 +1127,15 @@
   </si>
   <si>
     <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Coca-Cola, BonAqua</t>
+  </si>
+  <si>
+    <t>Brand: Coca-Cola, BonAqua</t>
+  </si>
+  <si>
+    <t>Sub brand</t>
   </si>
 </sst>
 </file>
@@ -1672,11 +1675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM86"/>
+  <dimension ref="A1:AMN86"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="AB1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH45" sqref="AH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1691,21 +1694,24 @@
     <col min="8" max="8" width="44" style="4"/>
     <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5546875" style="4" customWidth="1"/>
-    <col min="11" max="25" width="8.88671875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="96" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="8.88671875" style="4" customWidth="1"/>
-    <col min="33" max="33" width="19.21875" style="4" customWidth="1"/>
-    <col min="34" max="37" width="8.88671875" style="4" customWidth="1"/>
-    <col min="38" max="38" width="7.5546875" style="4"/>
-    <col min="39" max="39" width="8.88671875" style="4"/>
-    <col min="40" max="40" width="10.88671875" style="4"/>
-    <col min="41" max="41" width="9" style="4"/>
-    <col min="42" max="1027" width="9.33203125" style="4"/>
-    <col min="1028" max="16384" width="8.88671875" style="5"/>
+    <col min="11" max="17" width="8.88671875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="33.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.44140625" style="4" customWidth="1"/>
+    <col min="20" max="26" width="8.88671875" style="4" customWidth="1"/>
+    <col min="27" max="27" width="96" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="8.88671875" style="4" customWidth="1"/>
+    <col min="34" max="34" width="19.21875" style="4" customWidth="1"/>
+    <col min="35" max="38" width="8.88671875" style="4" customWidth="1"/>
+    <col min="39" max="39" width="7.5546875" style="4"/>
+    <col min="40" max="40" width="8.88671875" style="4"/>
+    <col min="41" max="41" width="10.88671875" style="4"/>
+    <col min="42" max="42" width="9" style="4"/>
+    <col min="43" max="1028" width="9.33203125" style="4"/>
+    <col min="1029" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1761,76 +1767,79 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1877,23 +1886,24 @@
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="7"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AL2" s="6">
-        <v>1</v>
-      </c>
+      <c r="AL2" s="6"/>
       <c r="AM2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="6">
         <v>300</v>
       </c>
-      <c r="AN2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="AO2" s="6"/>
+      <c r="AO2" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP2" s="6"/>
     </row>
-    <row r="3" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1944,31 +1954,32 @@
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="6"/>
+      <c r="AH3" s="7"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
-      <c r="AL3" s="6">
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6">
         <v>2</v>
       </c>
-      <c r="AM3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="AO3" s="6">
+      <c r="AN3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2009,51 +2020,52 @@
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="6"/>
+      <c r="T4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AH4" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="6">
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6">
         <v>3</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AN4" s="6">
         <v>2</v>
       </c>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="6">
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2094,51 +2106,52 @@
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="6" t="s">
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AH5" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="6">
-        <v>3</v>
-      </c>
+      <c r="AL5" s="6"/>
       <c r="AM5" s="6">
         <v>3</v>
       </c>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="6">
+      <c r="AN5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2179,49 +2192,50 @@
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="6"/>
+      <c r="T6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="6" t="s">
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="AH6" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="6">
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6">
         <v>3</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AN6" s="6">
         <v>4</v>
       </c>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="6">
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2262,51 +2276,52 @@
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="U7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="6" t="s">
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AG7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AH7" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="6">
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6">
         <v>3</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AN7" s="6">
         <v>5</v>
       </c>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="6">
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2347,51 +2362,52 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="U8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="6" t="s">
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AG8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AH8" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
-      <c r="AL8" s="6">
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6">
         <v>3</v>
       </c>
-      <c r="AM8" s="6">
+      <c r="AN8" s="6">
         <v>6</v>
       </c>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="6">
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2432,51 +2448,52 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="6" t="s">
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="6" t="s">
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AG9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG9" s="7">
+      <c r="AH9" s="7">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6">
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6">
         <v>3</v>
       </c>
-      <c r="AM9" s="6">
+      <c r="AN9" s="6">
         <v>7</v>
       </c>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="6">
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2517,51 +2534,52 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="6"/>
+      <c r="T10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="U10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="6" t="s">
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="6" t="s">
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF10" s="6" t="s">
+      <c r="AG10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AH10" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="6">
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6">
         <v>3</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AN10" s="6">
         <v>8</v>
       </c>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="6">
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2602,49 +2620,50 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="6"/>
+      <c r="T11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="U11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="6" t="s">
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="6" t="s">
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG11" s="7">
+      <c r="AH11" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="6">
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6">
         <v>3</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AN11" s="6">
         <v>9</v>
       </c>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="6">
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2685,51 +2704,52 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="6"/>
+      <c r="T12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="U12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="6" t="s">
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="6" t="s">
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AG12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AH12" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="6">
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6">
         <v>3</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AN12" s="6">
         <v>10</v>
       </c>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="6">
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2770,51 +2790,52 @@
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="6"/>
+      <c r="T13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="U13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="6" t="s">
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="6" t="s">
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AG13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AH13" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="6">
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6">
         <v>3</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AN13" s="6">
         <v>11</v>
       </c>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="6">
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2855,49 +2876,50 @@
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="6"/>
+      <c r="T14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="U14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="6" t="s">
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="6" t="s">
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG14" s="7">
+      <c r="AH14" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="6">
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6">
         <v>3</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AN14" s="6">
         <v>12</v>
       </c>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="6">
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2938,49 +2960,50 @@
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="6"/>
+      <c r="T15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="U15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="6" t="s">
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="6" t="s">
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AH15" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="6">
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6">
         <v>3</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AN15" s="6">
         <v>13</v>
       </c>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="6">
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3021,49 +3044,50 @@
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="6"/>
+      <c r="T16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="U16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="6" t="s">
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="6" t="s">
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AH16" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="6">
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6">
         <v>3</v>
       </c>
-      <c r="AM16" s="6">
+      <c r="AN16" s="6">
         <v>14</v>
       </c>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="6">
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3104,51 +3128,52 @@
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="6"/>
+      <c r="T17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="U17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="6" t="s">
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="6" t="s">
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF17" s="6" t="s">
+      <c r="AG17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG17" s="7">
+      <c r="AH17" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="6">
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6">
         <v>3</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AN17" s="6">
         <v>15</v>
       </c>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="6">
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3189,51 +3214,52 @@
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="6"/>
+      <c r="T18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="U18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="6" t="s">
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="6" t="s">
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF18" s="6" t="s">
+      <c r="AG18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG18" s="7">
+      <c r="AH18" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
-      <c r="AL18" s="6">
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6">
         <v>3</v>
       </c>
-      <c r="AM18" s="6">
+      <c r="AN18" s="6">
         <v>16</v>
       </c>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="6">
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3274,51 +3300,52 @@
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="6"/>
+      <c r="T19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="U19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="6" t="s">
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="6" t="s">
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AH19" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
-      <c r="AL19" s="6">
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6">
         <v>3</v>
       </c>
-      <c r="AM19" s="6">
+      <c r="AN19" s="6">
         <v>17</v>
       </c>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="6">
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3359,51 +3386,52 @@
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="6"/>
+      <c r="T20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="U20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-      <c r="X20" s="6" t="s">
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="6" t="s">
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AG20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AH20" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
-      <c r="AL20" s="6">
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6">
         <v>3</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AN20" s="6">
         <v>18</v>
       </c>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="6">
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3444,49 +3472,50 @@
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="U21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="6" t="s">
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
-      <c r="AA21" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="6" t="s">
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG21" s="7">
+      <c r="AH21" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
-      <c r="AL21" s="6">
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6">
         <v>3</v>
       </c>
-      <c r="AM21" s="6">
+      <c r="AN21" s="6">
         <v>19</v>
       </c>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="6">
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3537,31 +3566,32 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="6" t="s">
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF22" s="6" t="s">
+      <c r="AG22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="6"/>
+      <c r="AH22" s="7"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
-      <c r="AL22" s="6">
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6">
         <v>2</v>
       </c>
-      <c r="AM22" s="6">
+      <c r="AN22" s="6">
         <v>20</v>
       </c>
-      <c r="AN22" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO22" s="6">
+      <c r="AO22" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP22" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3602,51 +3632,52 @@
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6" t="s">
+      <c r="S23" s="6"/>
+      <c r="T23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="U23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="6" t="s">
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
-      <c r="AA23" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="6" t="s">
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF23" s="6" t="s">
+      <c r="AG23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG23" s="7">
+      <c r="AH23" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
-      <c r="AL23" s="6">
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6">
         <v>3</v>
       </c>
-      <c r="AM23" s="6">
+      <c r="AN23" s="6">
         <v>21</v>
       </c>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="6">
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -3687,51 +3718,52 @@
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="6" t="s">
+      <c r="S24" s="6"/>
+      <c r="T24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="U24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="6" t="s">
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="6" t="s">
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AG24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG24" s="7">
+      <c r="AH24" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
-      <c r="AL24" s="6">
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6">
         <v>3</v>
       </c>
-      <c r="AM24" s="6">
+      <c r="AN24" s="6">
         <v>22</v>
       </c>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="6">
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -3772,51 +3804,52 @@
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="6" t="s">
+      <c r="S25" s="6"/>
+      <c r="T25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T25" s="6" t="s">
+      <c r="U25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="6" t="s">
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
-      <c r="AA25" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="6" t="s">
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG25" s="7">
+      <c r="AH25" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
-      <c r="AL25" s="6">
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6">
         <v>3</v>
       </c>
-      <c r="AM25" s="6">
+      <c r="AN25" s="6">
         <v>23</v>
       </c>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="6">
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -3857,51 +3890,52 @@
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="6"/>
+      <c r="T26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="U26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-      <c r="X26" s="6" t="s">
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
-      <c r="AA26" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="6" t="s">
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF26" s="6" t="s">
+      <c r="AG26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG26" s="7">
+      <c r="AH26" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
-      <c r="AL26" s="6">
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6">
         <v>3</v>
       </c>
-      <c r="AM26" s="6">
+      <c r="AN26" s="6">
         <v>24</v>
       </c>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="6">
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -3942,51 +3976,52 @@
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="6"/>
+      <c r="T27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="U27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
-      <c r="X27" s="6" t="s">
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
-      <c r="AA27" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="6" t="s">
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF27" s="6" t="s">
+      <c r="AG27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG27" s="7">
+      <c r="AH27" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
-      <c r="AL27" s="6">
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6">
         <v>3</v>
       </c>
-      <c r="AM27" s="6">
+      <c r="AN27" s="6">
         <v>25</v>
       </c>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="6">
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4027,49 +4062,50 @@
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="6" t="s">
+      <c r="S28" s="6"/>
+      <c r="T28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="6" t="s">
+      <c r="U28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
-      <c r="X28" s="6" t="s">
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
-      <c r="AA28" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
-      <c r="AF28" s="6" t="s">
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG28" s="7">
+      <c r="AH28" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
-      <c r="AL28" s="6">
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6">
         <v>3</v>
       </c>
-      <c r="AM28" s="6">
+      <c r="AN28" s="6">
         <v>26</v>
       </c>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="6">
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4120,31 +4156,32 @@
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="6" t="s">
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF29" s="6" t="s">
+      <c r="AG29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="6"/>
+      <c r="AH29" s="7"/>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
-      <c r="AL29" s="6">
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6">
         <v>2</v>
       </c>
-      <c r="AM29" s="6">
+      <c r="AN29" s="6">
         <v>27</v>
       </c>
-      <c r="AN29" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO29" s="6">
+      <c r="AO29" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP29" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4185,51 +4222,52 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="6" t="s">
+      <c r="S30" s="6"/>
+      <c r="T30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T30" s="6" t="s">
+      <c r="U30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
-      <c r="X30" s="6" t="s">
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
-      <c r="AA30" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="6" t="s">
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF30" s="6" t="s">
+      <c r="AG30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG30" s="7">
+      <c r="AH30" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
-      <c r="AL30" s="6">
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6">
         <v>3</v>
       </c>
-      <c r="AM30" s="6">
+      <c r="AN30" s="6">
         <v>28</v>
       </c>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="6">
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4270,51 +4308,52 @@
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="6"/>
+      <c r="T31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T31" s="6" t="s">
+      <c r="U31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
-      <c r="X31" s="6" t="s">
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
-      <c r="AA31" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="6" t="s">
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF31" s="6" t="s">
+      <c r="AG31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG31" s="7">
+      <c r="AH31" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
-      <c r="AL31" s="6">
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6">
         <v>3</v>
       </c>
-      <c r="AM31" s="6">
+      <c r="AN31" s="6">
         <v>29</v>
       </c>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="6">
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4355,51 +4394,52 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="6" t="s">
+      <c r="S32" s="6"/>
+      <c r="T32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T32" s="6" t="s">
+      <c r="U32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="6" t="s">
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
-      <c r="AA32" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="6" t="s">
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF32" s="6" t="s">
+      <c r="AG32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG32" s="7">
+      <c r="AH32" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
-      <c r="AL32" s="6">
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6">
         <v>3</v>
       </c>
-      <c r="AM32" s="6">
+      <c r="AN32" s="6">
         <v>30</v>
       </c>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="6">
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4440,51 +4480,52 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="6" t="s">
+      <c r="S33" s="6"/>
+      <c r="T33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="U33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
-      <c r="X33" s="6" t="s">
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
-      <c r="AA33" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="6" t="s">
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF33" s="6" t="s">
+      <c r="AG33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG33" s="7">
+      <c r="AH33" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
-      <c r="AL33" s="6">
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6">
         <v>3</v>
       </c>
-      <c r="AM33" s="6">
+      <c r="AN33" s="6">
         <v>31</v>
       </c>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="6">
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4525,51 +4566,52 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="6" t="s">
+      <c r="S34" s="6"/>
+      <c r="T34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T34" s="6" t="s">
+      <c r="U34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
-      <c r="X34" s="6" t="s">
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="6" t="s">
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF34" s="6" t="s">
+      <c r="AG34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG34" s="7">
+      <c r="AH34" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
-      <c r="AL34" s="6">
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6">
         <v>3</v>
       </c>
-      <c r="AM34" s="6">
+      <c r="AN34" s="6">
         <v>32</v>
       </c>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="6">
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4610,51 +4652,52 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="6" t="s">
+      <c r="S35" s="6"/>
+      <c r="T35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T35" s="6" t="s">
+      <c r="U35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
-      <c r="X35" s="6" t="s">
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
-      <c r="AA35" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
-      <c r="AE35" s="6" t="s">
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AG35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG35" s="7">
+      <c r="AH35" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
-      <c r="AL35" s="6">
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6">
         <v>3</v>
       </c>
-      <c r="AM35" s="6">
+      <c r="AN35" s="6">
         <v>33</v>
       </c>
-      <c r="AN35" s="9"/>
-      <c r="AO35" s="6">
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4695,51 +4738,52 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="6" t="s">
+      <c r="S36" s="6"/>
+      <c r="T36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T36" s="6" t="s">
+      <c r="U36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
-      <c r="X36" s="6" t="s">
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
-      <c r="AA36" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
-      <c r="AE36" s="6" t="s">
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF36" s="6" t="s">
+      <c r="AG36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG36" s="7">
+      <c r="AH36" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
-      <c r="AL36" s="6">
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6">
         <v>3</v>
       </c>
-      <c r="AM36" s="6">
+      <c r="AN36" s="6">
         <v>34</v>
       </c>
-      <c r="AN36" s="9"/>
-      <c r="AO36" s="6">
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4780,51 +4824,52 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="6" t="s">
+      <c r="S37" s="6"/>
+      <c r="T37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T37" s="6" t="s">
+      <c r="U37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-      <c r="X37" s="6" t="s">
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
-      <c r="AA37" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
-      <c r="AE37" s="6" t="s">
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF37" s="6" t="s">
+      <c r="AG37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG37" s="7">
+      <c r="AH37" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6"/>
-      <c r="AL37" s="6">
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6">
         <v>3</v>
       </c>
-      <c r="AM37" s="6">
+      <c r="AN37" s="6">
         <v>35</v>
       </c>
-      <c r="AN37" s="9"/>
-      <c r="AO37" s="6">
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4865,51 +4910,52 @@
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="6" t="s">
+      <c r="S38" s="6"/>
+      <c r="T38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T38" s="6" t="s">
+      <c r="U38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-      <c r="X38" s="6" t="s">
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
-      <c r="AA38" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
-      <c r="AE38" s="6" t="s">
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF38" s="6" t="s">
+      <c r="AG38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG38" s="7">
+      <c r="AH38" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
-      <c r="AL38" s="6">
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6">
         <v>3</v>
       </c>
-      <c r="AM38" s="6">
+      <c r="AN38" s="6">
         <v>36</v>
       </c>
-      <c r="AN38" s="9"/>
-      <c r="AO38" s="6">
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4950,51 +4996,52 @@
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="6" t="s">
+      <c r="S39" s="6"/>
+      <c r="T39" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T39" s="6" t="s">
+      <c r="U39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
-      <c r="X39" s="6" t="s">
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
-      <c r="AA39" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="6" t="s">
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF39" s="6" t="s">
+      <c r="AG39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG39" s="7">
+      <c r="AH39" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
-      <c r="AL39" s="6">
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6">
         <v>3</v>
       </c>
-      <c r="AM39" s="6">
+      <c r="AN39" s="6">
         <v>37</v>
       </c>
-      <c r="AN39" s="9"/>
-      <c r="AO39" s="6">
+      <c r="AO39" s="9"/>
+      <c r="AP39" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -5045,31 +5092,32 @@
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
-      <c r="AE40" s="6" t="s">
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF40" s="6" t="s">
+      <c r="AG40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="6"/>
+      <c r="AH40" s="7"/>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
-      <c r="AL40" s="6">
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6">
         <v>2</v>
       </c>
-      <c r="AM40" s="6">
+      <c r="AN40" s="6">
         <v>38</v>
       </c>
-      <c r="AN40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="AO40" s="6">
+      <c r="AO40" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP40" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -5110,51 +5158,52 @@
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="6" t="s">
+      <c r="S41" s="6"/>
+      <c r="T41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T41" s="6" t="s">
+      <c r="U41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
-      <c r="X41" s="6" t="s">
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
-      <c r="AA41" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
-      <c r="AE41" s="6" t="s">
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF41" s="6" t="s">
+      <c r="AG41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG41" s="7">
+      <c r="AH41" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
-      <c r="AL41" s="6">
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6">
         <v>3</v>
       </c>
-      <c r="AM41" s="6">
-        <v>39</v>
-      </c>
-      <c r="AN41" s="9"/>
-      <c r="AO41" s="6">
+      <c r="AN41" s="6">
+        <v>39</v>
+      </c>
+      <c r="AO41" s="9"/>
+      <c r="AP41" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -5195,51 +5244,52 @@
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="6" t="s">
+      <c r="S42" s="6"/>
+      <c r="T42" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T42" s="6" t="s">
+      <c r="U42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
-      <c r="X42" s="6" t="s">
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
-      <c r="AA42" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
-      <c r="AE42" s="6" t="s">
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF42" s="6" t="s">
+      <c r="AG42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG42" s="7">
+      <c r="AH42" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
-      <c r="AL42" s="6">
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6">
         <v>3</v>
       </c>
-      <c r="AM42" s="6">
+      <c r="AN42" s="6">
         <v>40</v>
       </c>
-      <c r="AN42" s="9"/>
-      <c r="AO42" s="6">
+      <c r="AO42" s="9"/>
+      <c r="AP42" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -5280,51 +5330,52 @@
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="6" t="s">
+      <c r="S43" s="6"/>
+      <c r="T43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T43" s="6" t="s">
+      <c r="U43" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="X43" s="6" t="s">
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
-      <c r="AA43" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
-      <c r="AE43" s="6" t="s">
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF43" s="6" t="s">
+      <c r="AG43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG43" s="7">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="AH43" s="6"/>
+      <c r="AH43" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
-      <c r="AL43" s="6">
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6">
         <v>3</v>
       </c>
-      <c r="AM43" s="6">
+      <c r="AN43" s="6">
         <v>41</v>
       </c>
-      <c r="AN43" s="9"/>
-      <c r="AO43" s="6">
+      <c r="AO43" s="9"/>
+      <c r="AP43" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5365,51 +5416,52 @@
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="6" t="s">
+      <c r="S44" s="6"/>
+      <c r="T44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T44" s="6" t="s">
+      <c r="U44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="X44" s="6" t="s">
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
-      <c r="AA44" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
-      <c r="AE44" s="6" t="s">
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF44" s="6" t="s">
+      <c r="AG44" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG44" s="7">
+      <c r="AH44" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
-      <c r="AL44" s="6">
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6">
         <v>3</v>
       </c>
-      <c r="AM44" s="6">
+      <c r="AN44" s="6">
         <v>42</v>
       </c>
-      <c r="AN44" s="9"/>
-      <c r="AO44" s="6">
+      <c r="AO44" s="9"/>
+      <c r="AP44" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5450,51 +5502,52 @@
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="6" t="s">
+      <c r="S45" s="6"/>
+      <c r="T45" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T45" s="6" t="s">
+      <c r="U45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="X45" s="6" t="s">
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
-      <c r="AA45" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
-      <c r="AE45" s="6" t="s">
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF45" s="6" t="s">
+      <c r="AG45" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG45" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AH45" s="6"/>
+      <c r="AH45" s="7">
+        <v>1.5800000000000002E-2</v>
+      </c>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
-      <c r="AL45" s="6">
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6">
         <v>3</v>
       </c>
-      <c r="AM45" s="6">
+      <c r="AN45" s="6">
         <v>43</v>
       </c>
-      <c r="AN45" s="9"/>
-      <c r="AO45" s="6">
+      <c r="AO45" s="9"/>
+      <c r="AP45" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5535,51 +5588,52 @@
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="6" t="s">
+      <c r="S46" s="6"/>
+      <c r="T46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T46" s="6" t="s">
+      <c r="U46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
-      <c r="X46" s="6" t="s">
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
-      <c r="AA46" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
-      <c r="AE46" s="6" t="s">
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF46" s="6" t="s">
+      <c r="AG46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG46" s="7">
+      <c r="AH46" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
-      <c r="AL46" s="6">
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6">
         <v>3</v>
       </c>
-      <c r="AM46" s="6">
+      <c r="AN46" s="6">
         <v>44</v>
       </c>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="6">
+      <c r="AO46" s="9"/>
+      <c r="AP46" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -5630,31 +5684,32 @@
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
-      <c r="AE47" s="6" t="s">
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF47" s="6" t="s">
+      <c r="AG47" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="6"/>
+      <c r="AH47" s="7"/>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="6"/>
-      <c r="AL47" s="6">
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6">
         <v>2</v>
       </c>
-      <c r="AM47" s="6">
+      <c r="AN47" s="6">
         <v>45</v>
       </c>
-      <c r="AN47" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="AO47" s="6">
+      <c r="AO47" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP47" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -5695,51 +5750,52 @@
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="6" t="s">
+      <c r="S48" s="6"/>
+      <c r="T48" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T48" s="6" t="s">
+      <c r="U48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
-      <c r="X48" s="6" t="s">
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
-      <c r="AA48" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="6" t="s">
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF48" s="6" t="s">
+      <c r="AG48" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG48" s="7">
+      <c r="AH48" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
-      <c r="AL48" s="6">
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6">
         <v>3</v>
       </c>
-      <c r="AM48" s="6">
+      <c r="AN48" s="6">
         <v>46</v>
       </c>
-      <c r="AN48" s="9"/>
-      <c r="AO48" s="6">
+      <c r="AO48" s="9"/>
+      <c r="AP48" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -5780,51 +5836,52 @@
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="6" t="s">
+      <c r="S49" s="6"/>
+      <c r="T49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T49" s="6" t="s">
+      <c r="U49" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
-      <c r="X49" s="6" t="s">
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
-      <c r="AA49" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
-      <c r="AE49" s="6" t="s">
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF49" s="6" t="s">
+      <c r="AG49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG49" s="7">
+      <c r="AH49" s="7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
-      <c r="AL49" s="6">
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6">
         <v>3</v>
       </c>
-      <c r="AM49" s="6">
+      <c r="AN49" s="6">
         <v>47</v>
       </c>
-      <c r="AN49" s="9"/>
-      <c r="AO49" s="6">
+      <c r="AO49" s="9"/>
+      <c r="AP49" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5865,51 +5922,52 @@
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
-      <c r="S50" s="6" t="s">
+      <c r="S50" s="6"/>
+      <c r="T50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T50" s="6" t="s">
+      <c r="U50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
-      <c r="X50" s="6" t="s">
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
-      <c r="AA50" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="6" t="s">
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF50" s="6" t="s">
+      <c r="AG50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG50" s="7">
+      <c r="AH50" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
-      <c r="AL50" s="6">
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6">
         <v>3</v>
       </c>
-      <c r="AM50" s="6">
+      <c r="AN50" s="6">
         <v>48</v>
       </c>
-      <c r="AN50" s="9"/>
-      <c r="AO50" s="6">
+      <c r="AO50" s="9"/>
+      <c r="AP50" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -5950,51 +6008,52 @@
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="6" t="s">
+      <c r="S51" s="6"/>
+      <c r="T51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T51" s="6" t="s">
+      <c r="U51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
-      <c r="X51" s="6" t="s">
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
-      <c r="AA51" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="6" t="s">
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF51" s="6" t="s">
+      <c r="AG51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG51" s="7">
+      <c r="AH51" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="6"/>
-      <c r="AL51" s="6">
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6">
         <v>3</v>
       </c>
-      <c r="AM51" s="6">
+      <c r="AN51" s="6">
         <v>49</v>
       </c>
-      <c r="AN51" s="9"/>
-      <c r="AO51" s="6">
+      <c r="AO51" s="9"/>
+      <c r="AP51" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -6035,51 +6094,52 @@
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="6" t="s">
+      <c r="S52" s="6"/>
+      <c r="T52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T52" s="6" t="s">
+      <c r="U52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
-      <c r="X52" s="6" t="s">
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
-      <c r="AA52" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
-      <c r="AE52" s="6" t="s">
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF52" s="6" t="s">
+      <c r="AG52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG52" s="7">
+      <c r="AH52" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="6"/>
-      <c r="AL52" s="6">
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6">
         <v>3</v>
       </c>
-      <c r="AM52" s="6">
+      <c r="AN52" s="6">
         <v>50</v>
       </c>
-      <c r="AN52" s="9"/>
-      <c r="AO52" s="6">
+      <c r="AO52" s="9"/>
+      <c r="AP52" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -6120,49 +6180,50 @@
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="6" t="s">
+      <c r="S53" s="6"/>
+      <c r="T53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T53" s="6" t="s">
+      <c r="U53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
-      <c r="X53" s="6" t="s">
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
-      <c r="AA53" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
       <c r="AE53" s="6"/>
-      <c r="AF53" s="6" t="s">
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG53" s="7">
+      <c r="AH53" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="6"/>
-      <c r="AL53" s="6">
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6">
         <v>3</v>
       </c>
-      <c r="AM53" s="6">
+      <c r="AN53" s="6">
         <v>51</v>
       </c>
-      <c r="AN53" s="9"/>
-      <c r="AO53" s="6">
+      <c r="AO53" s="9"/>
+      <c r="AP53" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -6203,49 +6264,50 @@
       </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
-      <c r="S54" s="6" t="s">
+      <c r="S54" s="6"/>
+      <c r="T54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T54" s="6" t="s">
+      <c r="U54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
-      <c r="X54" s="6" t="s">
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
-      <c r="AA54" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
       <c r="AE54" s="6"/>
-      <c r="AF54" s="6" t="s">
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG54" s="7">
+      <c r="AH54" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6"/>
-      <c r="AL54" s="6">
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6">
         <v>3</v>
       </c>
-      <c r="AM54" s="6">
+      <c r="AN54" s="6">
         <v>52</v>
       </c>
-      <c r="AN54" s="9"/>
-      <c r="AO54" s="6">
+      <c r="AO54" s="9"/>
+      <c r="AP54" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -6286,51 +6348,52 @@
       </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
-      <c r="S55" s="6" t="s">
+      <c r="S55" s="6"/>
+      <c r="T55" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T55" s="6" t="s">
+      <c r="U55" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U55" s="6"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
-      <c r="X55" s="6" t="s">
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
-      <c r="AA55" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
-      <c r="AE55" s="6" t="s">
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF55" s="6" t="s">
+      <c r="AG55" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG55" s="7">
+      <c r="AH55" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6"/>
       <c r="AK55" s="6"/>
-      <c r="AL55" s="6">
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6">
         <v>3</v>
       </c>
-      <c r="AM55" s="6">
+      <c r="AN55" s="6">
         <v>53</v>
       </c>
-      <c r="AN55" s="9"/>
-      <c r="AO55" s="6">
+      <c r="AO55" s="9"/>
+      <c r="AP55" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -6371,51 +6434,52 @@
       </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="6" t="s">
+      <c r="S56" s="6"/>
+      <c r="T56" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T56" s="6" t="s">
+      <c r="U56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
-      <c r="X56" s="6" t="s">
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
-      <c r="AA56" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
-      <c r="AE56" s="6" t="s">
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF56" s="6" t="s">
+      <c r="AG56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG56" s="7">
+      <c r="AH56" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
       <c r="AK56" s="6"/>
-      <c r="AL56" s="6">
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="6">
         <v>3</v>
       </c>
-      <c r="AM56" s="6">
+      <c r="AN56" s="6">
         <v>54</v>
       </c>
-      <c r="AN56" s="9"/>
-      <c r="AO56" s="6">
+      <c r="AO56" s="9"/>
+      <c r="AP56" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -6462,23 +6526,24 @@
       <c r="AD57" s="6"/>
       <c r="AE57" s="6"/>
       <c r="AF57" s="6"/>
-      <c r="AG57" s="7"/>
-      <c r="AH57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="7"/>
       <c r="AI57" s="6"/>
       <c r="AJ57" s="6"/>
       <c r="AK57" s="6"/>
-      <c r="AL57" s="6">
-        <v>1</v>
-      </c>
+      <c r="AL57" s="6"/>
       <c r="AM57" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN57" s="6">
         <v>400</v>
       </c>
-      <c r="AN57" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="AO57" s="6"/>
+      <c r="AO57" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP57" s="6"/>
     </row>
-    <row r="58" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -6525,57 +6590,58 @@
         <v>153</v>
       </c>
       <c r="R58" s="6"/>
-      <c r="S58" s="6" t="s">
+      <c r="S58" s="6"/>
+      <c r="T58" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T58" s="6" t="s">
+      <c r="U58" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
-      <c r="Y58" s="6" t="s">
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
-      <c r="AE58" s="6" t="s">
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF58" s="6" t="s">
+      <c r="AG58" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AG58" s="7">
+      <c r="AH58" s="7">
         <v>0.02</v>
       </c>
-      <c r="AH58" s="6">
+      <c r="AI58" s="6">
         <v>0</v>
       </c>
-      <c r="AI58" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ58" s="6" t="s">
+      <c r="AJ58" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AK58" s="6" t="s">
+      <c r="AL58" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AL58" s="6">
+      <c r="AM58" s="6">
         <v>2</v>
       </c>
-      <c r="AM58" s="6">
+      <c r="AN58" s="6">
         <v>55</v>
       </c>
-      <c r="AN58" s="9"/>
-      <c r="AO58" s="6">
+      <c r="AO58" s="9"/>
+      <c r="AP58" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -6622,57 +6688,58 @@
         <v>162</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="6" t="s">
+      <c r="S59" s="6"/>
+      <c r="T59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T59" s="6" t="s">
+      <c r="U59" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
-      <c r="Y59" s="6" t="s">
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
-      <c r="AE59" s="6" t="s">
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF59" s="6" t="s">
+      <c r="AG59" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AG59" s="7">
+      <c r="AH59" s="7">
         <v>0.01</v>
       </c>
-      <c r="AH59" s="6">
+      <c r="AI59" s="6">
         <v>0</v>
       </c>
-      <c r="AI59" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ59" s="6" t="s">
+      <c r="AJ59" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AK59" s="6" t="s">
+      <c r="AL59" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AL59" s="6">
+      <c r="AM59" s="6">
         <v>2</v>
       </c>
-      <c r="AM59" s="6">
+      <c r="AN59" s="6">
         <v>56</v>
       </c>
-      <c r="AN59" s="9"/>
-      <c r="AO59" s="6">
+      <c r="AO59" s="9"/>
+      <c r="AP59" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -6719,57 +6786,58 @@
         <v>166</v>
       </c>
       <c r="R60" s="6"/>
-      <c r="S60" s="6" t="s">
+      <c r="S60" s="6"/>
+      <c r="T60" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T60" s="6" t="s">
+      <c r="U60" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="U60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
-      <c r="Y60" s="6" t="s">
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
-      <c r="AE60" s="6" t="s">
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF60" s="6" t="s">
+      <c r="AG60" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AG60" s="7">
+      <c r="AH60" s="7">
         <v>0.02</v>
       </c>
-      <c r="AH60" s="6">
+      <c r="AI60" s="6">
         <v>0</v>
       </c>
-      <c r="AI60" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ60" s="6" t="s">
+      <c r="AJ60" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AK60" s="6" t="s">
+      <c r="AL60" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AL60" s="6">
+      <c r="AM60" s="6">
         <v>2</v>
       </c>
-      <c r="AM60" s="6">
+      <c r="AN60" s="6">
         <v>57</v>
       </c>
-      <c r="AN60" s="9"/>
-      <c r="AO60" s="6">
+      <c r="AO60" s="9"/>
+      <c r="AP60" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -6816,57 +6884,58 @@
         <v>252</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="6" t="s">
+      <c r="S61" s="6"/>
+      <c r="T61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T61" s="6" t="s">
+      <c r="U61" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="U61" s="6"/>
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
-      <c r="Y61" s="6" t="s">
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
-      <c r="AE61" s="6" t="s">
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF61" s="6" t="s">
+      <c r="AG61" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AG61" s="7">
+      <c r="AH61" s="7">
         <v>0.01</v>
       </c>
-      <c r="AH61" s="6">
+      <c r="AI61" s="6">
         <v>0</v>
       </c>
-      <c r="AI61" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ61" s="6" t="s">
+      <c r="AJ61" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AK61" s="6" t="s">
+      <c r="AL61" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AL61" s="6">
+      <c r="AM61" s="6">
         <v>2</v>
       </c>
-      <c r="AM61" s="6">
+      <c r="AN61" s="6">
         <v>58</v>
       </c>
-      <c r="AN61" s="9"/>
-      <c r="AO61" s="6">
+      <c r="AO61" s="9"/>
+      <c r="AP61" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -6913,23 +6982,24 @@
       <c r="AD62" s="6"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
-      <c r="AG62" s="7"/>
-      <c r="AH62" s="6"/>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="7"/>
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6"/>
       <c r="AK62" s="6"/>
-      <c r="AL62" s="6">
-        <v>1</v>
-      </c>
+      <c r="AL62" s="6"/>
       <c r="AM62" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="6">
         <v>500</v>
       </c>
-      <c r="AN62" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="AO62" s="6"/>
+      <c r="AO62" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP62" s="6"/>
     </row>
-    <row r="63" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -6976,25 +7046,26 @@
       <c r="AD63" s="6"/>
       <c r="AE63" s="6"/>
       <c r="AF63" s="6"/>
-      <c r="AG63" s="7"/>
-      <c r="AH63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="7"/>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6"/>
       <c r="AK63" s="6"/>
-      <c r="AL63" s="6">
-        <v>1</v>
-      </c>
+      <c r="AL63" s="6"/>
       <c r="AM63" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="6">
         <v>59</v>
       </c>
-      <c r="AN63" s="9">
+      <c r="AO63" s="9">
         <v>60</v>
       </c>
-      <c r="AO63" s="6">
+      <c r="AP63" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -7029,10 +7100,10 @@
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
-      <c r="S64" s="6" t="s">
+      <c r="S64" s="6"/>
+      <c r="T64" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
@@ -7043,35 +7114,36 @@
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
       <c r="AD64" s="6"/>
-      <c r="AE64" s="6" t="s">
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF64" s="6" t="s">
+      <c r="AG64" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AG64" s="7">
+      <c r="AH64" s="7">
         <v>0.16</v>
       </c>
-      <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-      <c r="AJ64" s="6" t="s">
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AK64" s="6"/>
-      <c r="AL64" s="6">
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6">
         <v>2</v>
       </c>
-      <c r="AM64" s="6">
+      <c r="AN64" s="6">
         <v>60</v>
       </c>
-      <c r="AN64" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="AO64" s="6">
+      <c r="AO64" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AP64" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -7113,46 +7185,47 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
-      <c r="T65" s="6" t="s">
+      <c r="T65" s="6"/>
+      <c r="U65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="U65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
-      <c r="Y65" s="6" t="s">
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
-      <c r="AE65" s="6" t="s">
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF65" s="6" t="s">
+      <c r="AG65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG65" s="7"/>
-      <c r="AH65" s="6"/>
+      <c r="AH65" s="7"/>
       <c r="AI65" s="6"/>
-      <c r="AJ65" s="6" t="s">
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AK65" s="6"/>
-      <c r="AL65" s="6">
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6">
         <v>3</v>
       </c>
-      <c r="AM65" s="6">
+      <c r="AN65" s="6">
         <v>61</v>
       </c>
-      <c r="AN65" s="9"/>
-      <c r="AO65" s="6">
+      <c r="AO65" s="9"/>
+      <c r="AP65" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -7194,44 +7267,45 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
-      <c r="T66" s="6" t="s">
+      <c r="T66" s="6"/>
+      <c r="U66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
-      <c r="Y66" s="6" t="s">
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
-      <c r="AE66" s="6" t="s">
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF66" s="6" t="s">
+      <c r="AG66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG66" s="7"/>
-      <c r="AH66" s="6"/>
+      <c r="AH66" s="7"/>
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
       <c r="AK66" s="6"/>
-      <c r="AL66" s="6">
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="6">
         <v>3</v>
       </c>
-      <c r="AM66" s="6">
+      <c r="AN66" s="6">
         <v>62</v>
       </c>
-      <c r="AN66" s="9"/>
-      <c r="AO66" s="6">
+      <c r="AO66" s="9"/>
+      <c r="AP66" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -7278,25 +7352,26 @@
       <c r="AD67" s="6"/>
       <c r="AE67" s="6"/>
       <c r="AF67" s="6"/>
-      <c r="AG67" s="7"/>
-      <c r="AH67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="7"/>
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6"/>
       <c r="AK67" s="6"/>
-      <c r="AL67" s="6">
-        <v>1</v>
-      </c>
+      <c r="AL67" s="6"/>
       <c r="AM67" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN67" s="6">
         <v>63</v>
       </c>
-      <c r="AN67" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="AO67" s="6">
+      <c r="AO67" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="AP67" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -7336,50 +7411,51 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="6" t="s">
+      <c r="T68" s="6"/>
+      <c r="U68" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
-      <c r="Z68" s="6" t="s">
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AA68" s="6"/>
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
-      <c r="AE68" s="6" t="s">
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF68" s="6" t="s">
+      <c r="AG68" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG68" s="7">
+      <c r="AH68" s="7">
         <v>0.04</v>
       </c>
-      <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
-      <c r="AJ68" s="6" t="s">
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AK68" s="6" t="s">
+      <c r="AL68" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AL68" s="6">
+      <c r="AM68" s="6">
         <v>2</v>
       </c>
-      <c r="AM68" s="6">
+      <c r="AN68" s="6">
         <v>64</v>
       </c>
-      <c r="AN68" s="9"/>
-      <c r="AO68" s="6">
+      <c r="AO68" s="9"/>
+      <c r="AP68" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -7421,48 +7497,49 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="6" t="s">
+      <c r="T69" s="6"/>
+      <c r="U69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="U69" s="6"/>
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
-      <c r="Y69" s="6" t="s">
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
-      <c r="AE69" s="6" t="s">
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF69" s="6" t="s">
+      <c r="AG69" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AG69" s="7">
+      <c r="AH69" s="7">
         <v>0.04</v>
       </c>
-      <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
-      <c r="AJ69" s="6" t="s">
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AK69" s="6"/>
-      <c r="AL69" s="6">
+      <c r="AL69" s="6"/>
+      <c r="AM69" s="6">
         <v>2</v>
       </c>
-      <c r="AM69" s="6">
+      <c r="AN69" s="6">
         <v>65</v>
       </c>
-      <c r="AN69" s="9"/>
-      <c r="AO69" s="6">
+      <c r="AO69" s="9"/>
+      <c r="AP69" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -7506,48 +7583,49 @@
       <c r="Q70" s="18"/>
       <c r="R70" s="18"/>
       <c r="S70" s="18"/>
-      <c r="T70" s="18" t="s">
+      <c r="T70" s="18"/>
+      <c r="U70" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="U70" s="18"/>
       <c r="V70" s="18"/>
       <c r="W70" s="18"/>
       <c r="X70" s="18"/>
-      <c r="Y70" s="18" t="s">
+      <c r="Y70" s="18"/>
+      <c r="Z70" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
-      <c r="AE70" s="6" t="s">
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF70" s="6" t="s">
+      <c r="AG70" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG70" s="7">
+      <c r="AH70" s="7">
         <v>0</v>
       </c>
-      <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
-      <c r="AJ70" s="6" t="s">
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AK70" s="6"/>
-      <c r="AL70" s="6">
+      <c r="AL70" s="6"/>
+      <c r="AM70" s="6">
         <v>2</v>
       </c>
-      <c r="AM70" s="6">
+      <c r="AN70" s="6">
         <v>66</v>
       </c>
-      <c r="AN70" s="9"/>
-      <c r="AO70" s="6">
+      <c r="AO70" s="9"/>
+      <c r="AP70" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -7594,23 +7672,24 @@
       <c r="AD71" s="6"/>
       <c r="AE71" s="6"/>
       <c r="AF71" s="6"/>
-      <c r="AG71" s="7"/>
-      <c r="AH71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="7"/>
       <c r="AI71" s="6"/>
       <c r="AJ71" s="6"/>
       <c r="AK71" s="6"/>
-      <c r="AL71" s="6">
-        <v>1</v>
-      </c>
+      <c r="AL71" s="6"/>
       <c r="AM71" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN71" s="6">
         <v>600</v>
       </c>
-      <c r="AN71" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="AO71" s="6"/>
+      <c r="AO71" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP71" s="6"/>
     </row>
-    <row r="72" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -7647,10 +7726,10 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
-      <c r="S72" s="6" t="s">
+      <c r="S72" s="6"/>
+      <c r="T72" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
@@ -7662,30 +7741,31 @@
       <c r="AC72" s="6"/>
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
-      <c r="AF72" s="6" t="s">
+      <c r="AF72" s="6"/>
+      <c r="AG72" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG72" s="7">
+      <c r="AH72" s="7">
         <v>0.08</v>
       </c>
-      <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
       <c r="AJ72" s="6"/>
       <c r="AK72" s="6"/>
-      <c r="AL72" s="6">
+      <c r="AL72" s="6"/>
+      <c r="AM72" s="6">
         <v>2</v>
       </c>
-      <c r="AM72" s="6">
+      <c r="AN72" s="6">
         <v>67</v>
       </c>
-      <c r="AN72" s="9">
+      <c r="AO72" s="9">
         <v>68</v>
       </c>
-      <c r="AO72" s="6">
+      <c r="AP72" s="6">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -7719,54 +7799,55 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="Q73" s="6"/>
       <c r="R73" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="S73" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T73" s="6" t="s">
+      <c r="U73" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
-      <c r="Z73" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="AB73" s="6"/>
       <c r="AC73" s="6"/>
       <c r="AD73" s="6"/>
       <c r="AE73" s="6"/>
-      <c r="AF73" s="6" t="s">
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG73" s="7"/>
-      <c r="AH73" s="6"/>
+      <c r="AH73" s="7"/>
       <c r="AI73" s="6"/>
       <c r="AJ73" s="6"/>
       <c r="AK73" s="6"/>
-      <c r="AL73" s="6">
+      <c r="AL73" s="6"/>
+      <c r="AM73" s="6">
         <v>3</v>
       </c>
-      <c r="AM73" s="6">
+      <c r="AN73" s="6">
         <v>68</v>
       </c>
-      <c r="AN73" s="9"/>
-      <c r="AO73" s="6">
+      <c r="AO73" s="9"/>
+      <c r="AP73" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -7803,45 +7884,46 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
-      <c r="S74" s="6" t="s">
+      <c r="S74" s="6"/>
+      <c r="T74" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
-      <c r="Z74" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AB74" s="6"/>
       <c r="AC74" s="6"/>
       <c r="AD74" s="6"/>
       <c r="AE74" s="6"/>
-      <c r="AF74" s="6" t="s">
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG74" s="7"/>
-      <c r="AH74" s="5"/>
-      <c r="AI74" s="6"/>
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="5"/>
       <c r="AJ74" s="6"/>
       <c r="AK74" s="6"/>
-      <c r="AL74" s="6">
+      <c r="AL74" s="6"/>
+      <c r="AM74" s="6">
         <v>2</v>
       </c>
-      <c r="AM74" s="6">
+      <c r="AN74" s="6">
         <v>69</v>
       </c>
-      <c r="AN74" s="9">
+      <c r="AO74" s="9">
         <v>70</v>
       </c>
-      <c r="AO74" s="6">
+      <c r="AP74" s="6">
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -7878,49 +7960,50 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
-      <c r="S75" s="6" t="s">
+      <c r="S75" s="6"/>
+      <c r="T75" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
-      <c r="Z75" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AB75" s="6"/>
       <c r="AC75" s="6"/>
       <c r="AD75" s="6"/>
-      <c r="AE75" s="6" t="s">
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF75" s="6" t="s">
+      <c r="AG75" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG75" s="7">
+      <c r="AH75" s="7">
         <v>0.04</v>
       </c>
-      <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6"/>
       <c r="AK75" s="6"/>
-      <c r="AL75" s="6">
+      <c r="AL75" s="6"/>
+      <c r="AM75" s="6">
         <v>3</v>
       </c>
-      <c r="AM75" s="6">
+      <c r="AN75" s="6">
         <v>70</v>
       </c>
-      <c r="AN75" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="AO75" s="6">
+      <c r="AO75" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP75" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -7954,56 +8037,57 @@
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q76" s="6" t="s">
         <v>222</v>
       </c>
       <c r="R76" s="6"/>
-      <c r="S76" s="6" t="s">
+      <c r="S76" s="6"/>
+      <c r="T76" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T76" s="6" t="s">
+      <c r="U76" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
-      <c r="Z76" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AB76" s="6"/>
       <c r="AC76" s="6"/>
       <c r="AD76" s="6"/>
-      <c r="AE76" s="6" t="s">
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF76" s="6" t="s">
+      <c r="AG76" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG76" s="7"/>
-      <c r="AH76" s="6"/>
+      <c r="AH76" s="7"/>
       <c r="AI76" s="6"/>
       <c r="AJ76" s="6"/>
       <c r="AK76" s="6"/>
-      <c r="AL76" s="6">
+      <c r="AL76" s="6"/>
+      <c r="AM76" s="6">
         <v>4</v>
       </c>
-      <c r="AM76" s="6">
+      <c r="AN76" s="6">
         <v>71</v>
       </c>
-      <c r="AN76" s="9"/>
-      <c r="AO76" s="6">
+      <c r="AO76" s="9"/>
+      <c r="AP76" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -8044,49 +8128,50 @@
       </c>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
-      <c r="S77" s="6" t="s">
+      <c r="S77" s="6"/>
+      <c r="T77" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T77" s="6" t="s">
+      <c r="U77" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U77" s="6"/>
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
-      <c r="Z77" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AB77" s="6"/>
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
-      <c r="AE77" s="6" t="s">
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF77" s="6" t="s">
+      <c r="AG77" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG77" s="7"/>
-      <c r="AH77" s="6"/>
+      <c r="AH77" s="7"/>
       <c r="AI77" s="6"/>
-      <c r="AJ77" s="6" t="s">
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="AK77" s="6"/>
-      <c r="AL77" s="6">
+      <c r="AL77" s="6"/>
+      <c r="AM77" s="6">
         <v>4</v>
       </c>
-      <c r="AM77" s="6">
+      <c r="AN77" s="6">
         <v>72</v>
       </c>
-      <c r="AN77" s="9"/>
-      <c r="AO77" s="6">
+      <c r="AO77" s="9"/>
+      <c r="AP77" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -8123,47 +8208,48 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
-      <c r="S78" s="6" t="s">
+      <c r="S78" s="6"/>
+      <c r="T78" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
-      <c r="Z78" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AB78" s="6"/>
       <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
       <c r="AE78" s="6"/>
-      <c r="AF78" s="6" t="s">
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG78" s="7">
+      <c r="AH78" s="7">
         <v>0.06</v>
       </c>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="6"/>
+      <c r="AI78" s="5"/>
       <c r="AJ78" s="6"/>
       <c r="AK78" s="6"/>
-      <c r="AL78" s="6">
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6">
         <v>2</v>
       </c>
-      <c r="AM78" s="6">
+      <c r="AN78" s="6">
         <v>73</v>
       </c>
-      <c r="AN78" s="8">
+      <c r="AO78" s="8">
         <v>74</v>
       </c>
-      <c r="AO78" s="6">
+      <c r="AP78" s="6">
         <v>600</v>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -8180,10 +8266,10 @@
         <v>216</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>219</v>
@@ -8200,47 +8286,48 @@
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
-      <c r="S79" s="6" t="s">
+      <c r="S79" s="6"/>
+      <c r="T79" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="T79" s="6"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
-      <c r="Z79" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AB79" s="6"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
-      <c r="AE79" s="6" t="s">
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF79" s="6" t="s">
+      <c r="AG79" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG79" s="7"/>
-      <c r="AH79" s="6"/>
+      <c r="AH79" s="7"/>
       <c r="AI79" s="6"/>
       <c r="AJ79" s="6"/>
       <c r="AK79" s="6"/>
-      <c r="AL79" s="6">
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6">
         <v>3</v>
       </c>
-      <c r="AM79" s="6">
+      <c r="AN79" s="6">
         <v>74</v>
       </c>
-      <c r="AN79" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="AO79" s="6">
+      <c r="AO79" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AP79" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -8257,10 +8344,10 @@
         <v>216</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>49</v>
@@ -8285,47 +8372,48 @@
       <c r="R80" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S80" s="6" t="s">
+      <c r="S80" s="6"/>
+      <c r="T80" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T80" s="6" t="s">
+      <c r="U80" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="U80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
-      <c r="Z80" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA80" s="6"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AB80" s="6"/>
       <c r="AC80" s="6"/>
       <c r="AD80" s="6"/>
-      <c r="AE80" s="6" t="s">
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF80" s="6" t="s">
+      <c r="AG80" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG80" s="7"/>
-      <c r="AH80" s="6"/>
+      <c r="AH80" s="7"/>
       <c r="AI80" s="6"/>
       <c r="AJ80" s="6"/>
       <c r="AK80" s="6"/>
-      <c r="AL80" s="6">
+      <c r="AL80" s="6"/>
+      <c r="AM80" s="6">
         <v>4</v>
       </c>
-      <c r="AM80" s="6">
+      <c r="AN80" s="6">
         <v>75</v>
       </c>
-      <c r="AN80" s="9"/>
-      <c r="AO80" s="6">
+      <c r="AO80" s="9"/>
+      <c r="AP80" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -8342,10 +8430,10 @@
         <v>216</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>49</v>
@@ -8366,47 +8454,48 @@
       </c>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
-      <c r="S81" s="6" t="s">
+      <c r="S81" s="6"/>
+      <c r="T81" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T81" s="6" t="s">
+      <c r="U81" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U81" s="6"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
-      <c r="Z81" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA81" s="6"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="AB81" s="6"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
-      <c r="AE81" s="6" t="s">
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF81" s="6" t="s">
+      <c r="AG81" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG81" s="7"/>
-      <c r="AH81" s="6"/>
+      <c r="AH81" s="7"/>
       <c r="AI81" s="6"/>
       <c r="AJ81" s="6"/>
       <c r="AK81" s="6"/>
-      <c r="AL81" s="6">
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="6">
         <v>4</v>
       </c>
-      <c r="AM81" s="6">
+      <c r="AN81" s="6">
         <v>76</v>
       </c>
-      <c r="AN81" s="9"/>
-      <c r="AO81" s="6">
+      <c r="AO81" s="9"/>
+      <c r="AP81" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -8449,51 +8538,52 @@
       <c r="R82" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="S82" s="6" t="s">
+      <c r="S82" s="6"/>
+      <c r="T82" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T82" s="6" t="s">
+      <c r="U82" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="U82" s="6">
+      <c r="V82" s="6">
         <v>0.5</v>
       </c>
-      <c r="V82" s="6"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
-      <c r="Z82" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="AB82" s="6"/>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
-      <c r="AE82" s="6" t="s">
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF82" s="6" t="s">
+      <c r="AG82" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG82" s="7">
+      <c r="AH82" s="7">
         <v>0.02</v>
       </c>
-      <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6"/>
       <c r="AK82" s="6"/>
-      <c r="AL82" s="6">
+      <c r="AL82" s="6"/>
+      <c r="AM82" s="6">
         <v>2</v>
       </c>
-      <c r="AM82" s="6">
+      <c r="AN82" s="6">
         <v>77</v>
       </c>
-      <c r="AN82" s="9"/>
-      <c r="AO82" s="6">
+      <c r="AO82" s="9"/>
+      <c r="AP82" s="6">
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -8540,23 +8630,24 @@
       <c r="AD83" s="6"/>
       <c r="AE83" s="6"/>
       <c r="AF83" s="6"/>
-      <c r="AG83" s="7"/>
-      <c r="AH83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="7"/>
       <c r="AI83" s="6"/>
       <c r="AJ83" s="6"/>
       <c r="AK83" s="6"/>
-      <c r="AL83" s="6">
-        <v>1</v>
-      </c>
+      <c r="AL83" s="6"/>
       <c r="AM83" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN83" s="6">
         <v>700</v>
       </c>
-      <c r="AN83" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="AO83" s="6"/>
+      <c r="AO83" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP83" s="6"/>
     </row>
-    <row r="84" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -8599,57 +8690,58 @@
         <v>153</v>
       </c>
       <c r="R84" s="6"/>
-      <c r="S84" s="6" t="s">
+      <c r="S84" s="6"/>
+      <c r="T84" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T84" s="6" t="s">
+      <c r="U84" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="U84" s="6"/>
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
-      <c r="Y84" s="6" t="s">
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="6"/>
       <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
-      <c r="AE84" s="6" t="s">
+      <c r="AE84" s="6"/>
+      <c r="AF84" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF84" s="6" t="s">
+      <c r="AG84" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AG84" s="7">
+      <c r="AH84" s="7">
         <v>0.02</v>
       </c>
-      <c r="AH84" s="6">
+      <c r="AI84" s="6">
         <v>0</v>
       </c>
-      <c r="AI84" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ84" s="6" t="s">
+      <c r="AJ84" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK84" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AK84" s="6" t="s">
+      <c r="AL84" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AL84" s="6">
+      <c r="AM84" s="6">
         <v>2</v>
       </c>
-      <c r="AM84" s="6">
+      <c r="AN84" s="6">
         <v>78</v>
       </c>
-      <c r="AN84" s="9"/>
-      <c r="AO84" s="6">
+      <c r="AO84" s="9"/>
+      <c r="AP84" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -8692,57 +8784,58 @@
         <v>162</v>
       </c>
       <c r="R85" s="6"/>
-      <c r="S85" s="6" t="s">
+      <c r="S85" s="6"/>
+      <c r="T85" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T85" s="6" t="s">
+      <c r="U85" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
-      <c r="Y85" s="6" t="s">
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
       <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
-      <c r="AE85" s="6" t="s">
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF85" s="6" t="s">
+      <c r="AG85" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AG85" s="7">
+      <c r="AH85" s="7">
         <v>0.01</v>
       </c>
-      <c r="AH85" s="6">
+      <c r="AI85" s="6">
         <v>0</v>
       </c>
-      <c r="AI85" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ85" s="6" t="s">
+      <c r="AJ85" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK85" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AK85" s="6" t="s">
+      <c r="AL85" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AL85" s="6">
+      <c r="AM85" s="6">
         <v>2</v>
       </c>
-      <c r="AM85" s="6">
+      <c r="AN85" s="6">
         <v>79</v>
       </c>
-      <c r="AN85" s="9"/>
-      <c r="AO85" s="6">
+      <c r="AO85" s="9"/>
+      <c r="AP85" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -8785,58 +8878,59 @@
         <v>166</v>
       </c>
       <c r="R86" s="6"/>
-      <c r="S86" s="6" t="s">
+      <c r="S86" s="6"/>
+      <c r="T86" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T86" s="6" t="s">
+      <c r="U86" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
-      <c r="Y86" s="6" t="s">
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
       <c r="AC86" s="6"/>
       <c r="AD86" s="6"/>
-      <c r="AE86" s="6" t="s">
+      <c r="AE86" s="6"/>
+      <c r="AF86" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF86" s="6" t="s">
+      <c r="AG86" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AG86" s="7">
+      <c r="AH86" s="7">
         <v>0.01</v>
       </c>
-      <c r="AH86" s="6">
+      <c r="AI86" s="6">
         <v>0</v>
       </c>
-      <c r="AI86" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ86" s="6" t="s">
+      <c r="AJ86" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK86" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AK86" s="6" t="s">
+      <c r="AL86" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AL86" s="6">
+      <c r="AM86" s="6">
         <v>2</v>
       </c>
-      <c r="AM86" s="6">
+      <c r="AN86" s="6">
         <v>80</v>
       </c>
-      <c r="AN86" s="9"/>
-      <c r="AO86" s="6">
+      <c r="AO86" s="9"/>
+      <c r="AP86" s="6">
         <v>700</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO86" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AP86" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
